--- a/bots/crawl_ch/output/clothes_2022-07-29.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-29.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2115,24 +2115,24 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6075749002</t>
+          <t>6075749004</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  13 - 14</t>
+          <t>Avela Strumpfhose Top Size Noir  13 - 14</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-13-14/p/6075749002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-13-14/p/6075749004</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2161,29 +2161,29 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Noir  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6075749004</t>
+          <t>6031467007</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  13 - 14</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss M</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-13-14/p/6075749004</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-m/p/6031467007</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2207,34 +2207,34 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss M 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6031467007</t>
+          <t>6075749002</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss M</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-m/p/6031467007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-13-14/p/6075749002</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2244,12 +2244,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2258,17 +2258,17 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss M 24.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-07-29 07:01:19</t>
+          <t>2022-07-29 20:58:31</t>
         </is>
       </c>
     </row>
